--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t xml:space="preserve">喜多雄大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GITをスムーズに利用できるようにする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日の課題提出する際にグループ内で確認しあう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「.」「,」の使い分け</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分が行った動作を理解できるように見やすいノートづくりをする</t>
   </si>
 </sst>
 </file>
@@ -239,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,6 +313,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,6 +342,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -590,7 +610,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -794,7 +814,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="n">
         <v>1</v>
@@ -805,17 +825,17 @@
       <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="17" t="n">
         <v>45397</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="13"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -834,17 +854,27 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="18"/>
+      <c r="B7" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>45398</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -862,17 +892,27 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="18"/>
+      <c r="B8" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="24" t="n">
+        <v>45398</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -890,17 +930,17 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -919,16 +959,16 @@
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -946,17 +986,17 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -975,16 +1015,16 @@
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1002,17 +1042,17 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1031,16 +1071,16 @@
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1058,17 +1098,17 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1087,16 +1127,16 @@
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1114,17 +1154,17 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1143,16 +1183,16 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1170,17 +1210,17 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1199,16 +1239,16 @@
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1226,17 +1266,17 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1255,16 +1295,16 @@
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1282,17 +1322,17 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -1311,16 +1351,16 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -1338,17 +1378,17 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1367,16 +1407,16 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1394,7 +1434,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3"/>
@@ -1422,7 +1462,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="23"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
@@ -1450,7 +1490,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="23"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
@@ -1478,7 +1518,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="23"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
@@ -1506,7 +1546,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="3"/>
@@ -1534,7 +1574,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="23"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="3"/>
@@ -1562,7 +1602,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="23"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="3"/>
@@ -1590,7 +1630,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
@@ -1618,7 +1658,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="23"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
@@ -1646,7 +1686,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="23"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="3"/>
@@ -1674,7 +1714,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="23"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="3"/>
@@ -1702,7 +1742,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="23"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="3"/>
@@ -1730,7 +1770,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="23"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
@@ -1758,7 +1798,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="23"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="3"/>
@@ -1786,7 +1826,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="23"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="3"/>
@@ -1814,7 +1854,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
@@ -1842,7 +1882,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="23"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="3"/>
@@ -1870,7 +1910,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="23"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
@@ -1898,7 +1938,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="23"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
@@ -1926,7 +1966,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
-      <c r="B46" s="23"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
@@ -1954,7 +1994,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
-      <c r="B47" s="23"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
@@ -1982,7 +2022,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
-      <c r="B48" s="23"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="3"/>
@@ -2010,7 +2050,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
-      <c r="B49" s="23"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
@@ -2038,7 +2078,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="23"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="3"/>
@@ -2066,7 +2106,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="23"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -2094,7 +2134,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="23"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -2122,7 +2162,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="23"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="3"/>
@@ -2150,7 +2190,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="23"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2178,7 +2218,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="B55" s="23"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2206,7 +2246,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="B56" s="23"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2234,7 +2274,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="B57" s="23"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
@@ -2262,7 +2302,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="23"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
@@ -2290,7 +2330,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
@@ -2318,7 +2358,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="23"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
@@ -2346,7 +2386,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="23"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
@@ -2374,7 +2414,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
@@ -2402,7 +2442,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
@@ -2430,7 +2470,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="23"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
@@ -2458,7 +2498,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="23"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="3"/>
@@ -2486,7 +2526,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="3"/>
@@ -2514,7 +2554,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="23"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
@@ -2542,7 +2582,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="23"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
@@ -2570,7 +2610,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="23"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
@@ -2598,7 +2638,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="23"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
@@ -2626,7 +2666,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="23"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
@@ -2654,7 +2694,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="23"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
@@ -2682,7 +2722,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="23"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
@@ -2710,7 +2750,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="23"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
@@ -2738,7 +2778,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="23"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t xml:space="preserve">自分が行った動作を理解できるように見やすいノートづくりをする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asideとarticleの使い分け</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講師の方に質問して理解する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自主学習と課題の時間配分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">時間を逆算して行動する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">細かい入力間違いなくす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タイピング練習を行う</t>
   </si>
 </sst>
 </file>
@@ -610,7 +628,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -930,14 +948,24 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18" t="n">
+        <v>4</v>
+      </c>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>45399</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J9" s="21"/>
       <c r="K9" s="22"/>
       <c r="L9" s="19"/>
@@ -958,14 +986,24 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="C10" s="19"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="22" t="n">
+        <v>45399</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J10" s="21"/>
       <c r="K10" s="22"/>
       <c r="L10" s="19"/>
@@ -986,14 +1024,24 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18" t="n">
+        <v>6</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="22" t="n">
+        <v>45399</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
       <c r="L11" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t xml:space="preserve">タイピング練習を行う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画像の配置の行い方（画像の配置、大きさ）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あらかじめ計画表を立ててから取り掛かる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指定された提出方法でできなかったこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提出方法の資料の理解を深める</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTMLのフォーム知識の理解不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手順を今一度確認する</t>
   </si>
 </sst>
 </file>
@@ -628,7 +646,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1062,14 +1080,24 @@
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="n">
+        <v>7</v>
+      </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="22" t="n">
+        <v>45400</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
       <c r="L12" s="19"/>
@@ -1090,14 +1118,24 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="n">
+        <v>8</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="22" t="n">
+        <v>45400</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J13" s="21"/>
       <c r="K13" s="22"/>
       <c r="L13" s="19"/>
@@ -1118,14 +1156,24 @@
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="n">
+        <v>9</v>
+      </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="22" t="n">
+        <v>45400</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J14" s="21"/>
       <c r="K14" s="22"/>
       <c r="L14" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t xml:space="preserve">手順を今一度確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラミング言語の英語の意味が理解できなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英単語やJAVAの英語の単語などを覚える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ダブルクォーテーションの付け忘れ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先にダブルクォーテーションをつけてから作成する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">波カッコの付け忘れ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先に波カッコをつけてから作成する</t>
   </si>
 </sst>
 </file>
@@ -646,7 +664,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1194,14 +1212,24 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="18" t="n">
+        <v>10</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="22" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J15" s="21"/>
       <c r="K15" s="22"/>
       <c r="L15" s="19"/>
@@ -1222,14 +1250,24 @@
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="19"/>
+      <c r="F16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="22" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J16" s="21"/>
       <c r="K16" s="22"/>
       <c r="L16" s="19"/>
@@ -1250,14 +1288,24 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="18" t="n">
+        <v>12</v>
+      </c>
       <c r="C17" s="19"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="19"/>
+      <c r="F17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="22" t="n">
+        <v>45401</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="21"/>
       <c r="K17" s="22"/>
       <c r="L17" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t xml:space="preserve">先に波カッコをつけてから作成する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休日を挟んだため、少し忘れていることがあった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講義を受ける前に復習を行ってから取り組む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朝会での質問が少ない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部署関係なく、気になることは積極的に質問する</t>
   </si>
 </sst>
 </file>
@@ -664,7 +676,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,14 +1338,24 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12" t="n">
+        <v>13</v>
+      </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="19"/>
+      <c r="F18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="22" t="n">
+        <v>45404</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="21"/>
       <c r="K18" s="22"/>
       <c r="L18" s="19"/>
@@ -1354,14 +1376,24 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="18" t="n">
+        <v>14</v>
+      </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="19"/>
+      <c r="F19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="22" t="n">
+        <v>45404</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J19" s="21"/>
       <c r="K19" s="22"/>
       <c r="L19" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t xml:space="preserve">部署関係なく、気になることは積極的に質問する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while文とdo-while文の使い分けができないこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講師の方に活用法を聞く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while文を使ったときに無限ループになってしまった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こと細かいところまで条件式を見直す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GITの課題の未提出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配布資料を細かい部分まで見る</t>
   </si>
 </sst>
 </file>
@@ -676,7 +694,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1414,14 +1432,24 @@
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12" t="n">
+        <v>15</v>
+      </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="19"/>
+      <c r="F20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="22" t="n">
+        <v>45405</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J20" s="21"/>
       <c r="K20" s="22"/>
       <c r="L20" s="19"/>
@@ -1442,14 +1470,24 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18" t="n">
+        <v>16</v>
+      </c>
       <c r="C21" s="19"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="22" t="n">
+        <v>45405</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J21" s="21"/>
       <c r="K21" s="22"/>
       <c r="L21" s="19"/>
@@ -1470,14 +1508,24 @@
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="12" t="n">
+        <v>17</v>
+      </c>
       <c r="C22" s="19"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="19"/>
+      <c r="F22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="22" t="n">
+        <v>45405</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J22" s="21"/>
       <c r="K22" s="22"/>
       <c r="L22" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -185,7 +185,19 @@
     <t xml:space="preserve">GITの課題の未提出</t>
   </si>
   <si>
-    <t xml:space="preserve">配布資料を細かい部分まで見る</t>
+    <t xml:space="preserve">配布資料をしっかり見る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人に説明するときに言語化することができなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">相手の気持ちを考えながら説明する。回数を重ねる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">構成を練らずにJavaを作ってしまった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">思いついたことをメモに書き起こしてから始める</t>
   </si>
 </sst>
 </file>
@@ -694,7 +706,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1546,14 +1558,24 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="18" t="n">
+        <v>18</v>
+      </c>
       <c r="C23" s="19"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>45406</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
       <c r="L23" s="19"/>
@@ -1574,14 +1596,24 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="12" t="n">
+        <v>19</v>
+      </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="19"/>
+      <c r="F24" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="22" t="n">
+        <v>45406</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J24" s="21"/>
       <c r="K24" s="22"/>
       <c r="L24" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve">思いついたことをメモに書き起こしてから始める</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提出物の確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">連絡事項を細部まで確認するようにする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変数名の書き方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コーデイング規約を確認してから作成する</t>
   </si>
 </sst>
 </file>
@@ -706,7 +718,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1634,14 +1646,24 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="18" t="n">
+        <v>20</v>
+      </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="22" t="n">
+        <v>45407</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J25" s="21"/>
       <c r="K25" s="22"/>
       <c r="L25" s="19"/>
@@ -1662,14 +1684,24 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="n">
+        <v>21</v>
+      </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
+      <c r="F26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="22" t="n">
+        <v>45407</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J26" s="21"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -1690,17 +1722,17 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1718,17 +1750,17 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1746,17 +1778,17 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1774,17 +1806,17 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1802,17 +1834,17 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -28962,7 +28994,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C26 H26 K26" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C31 K26:K31 H27:H31" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t xml:space="preserve">コーデイング規約を確認してから作成する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グループワークの資料の保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こまめに資料を保存する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">戻り値の構成の理解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">休日に復習して理解を深める</t>
   </si>
 </sst>
 </file>
@@ -718,7 +730,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,14 +1734,24 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="n">
+        <v>22</v>
+      </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
+      <c r="F27" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="22" t="n">
+        <v>45408</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J27" s="21"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
@@ -1750,14 +1772,24 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="n">
+        <v>23</v>
+      </c>
       <c r="C28" s="19"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
+      <c r="F28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="22" t="n">
+        <v>45408</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J28" s="21"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -1784,7 +1816,7 @@
       <c r="E29" s="20"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="19"/>
       <c r="J29" s="21"/>
       <c r="K29" s="19"/>
@@ -1812,7 +1844,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="19"/>
       <c r="J30" s="21"/>
       <c r="K30" s="19"/>
@@ -1840,7 +1872,7 @@
       <c r="E31" s="20"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="19"/>
       <c r="J31" s="21"/>
       <c r="K31" s="19"/>
@@ -1862,17 +1894,17 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -1890,17 +1922,17 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -1918,17 +1950,17 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -1946,17 +1978,17 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -1974,17 +2006,17 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2002,17 +2034,17 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2030,17 +2062,17 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2058,17 +2090,17 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2086,17 +2118,17 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2114,17 +2146,17 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -28994,7 +29026,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C31 K26:K31 H27:H31" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C41 K26:K41" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -222,6 +222,21 @@
   </si>
   <si>
     <t xml:space="preserve">休日に復習して理解を深める</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staticメンバの意味を理解できていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">再度学びなおす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スラックにチェックを忘れる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">明日からメッセージを見てすぐにチェックを入れる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石丸龍斗</t>
   </si>
 </sst>
 </file>
@@ -730,7 +745,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,14 +1825,24 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="n">
+        <v>24</v>
+      </c>
       <c r="C29" s="19"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="19"/>
+      <c r="F29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="22" t="n">
+        <v>45419</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J29" s="21"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
@@ -1838,14 +1863,24 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="n">
+        <v>25</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="19"/>
+      <c r="F30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="22" t="n">
+        <v>45419</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="J30" s="21"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t xml:space="preserve">石丸龍斗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nullの使い方がわからない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もう一度教科書を見直す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラスライブラリが理解できていない</t>
   </si>
 </sst>
 </file>
@@ -745,7 +754,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="bottomLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1901,14 +1910,24 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="12" t="n">
+        <v>26</v>
+      </c>
       <c r="C31" s="19"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="19"/>
+      <c r="F31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="22" t="n">
+        <v>45420</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J31" s="21"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
@@ -1929,14 +1948,24 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="12" t="n">
+        <v>27</v>
+      </c>
       <c r="C32" s="19"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="19"/>
+      <c r="F32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="22" t="n">
+        <v>45420</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J32" s="21"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t xml:space="preserve">クラスライブラリが理解できていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">記述式試験の時間が足りなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もっと理解を深める必要がある</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インターフェイスの部分が理解できていない</t>
   </si>
 </sst>
 </file>
@@ -752,9 +761,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1986,14 +1995,24 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="12" t="n">
+        <v>28</v>
+      </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="19"/>
+      <c r="F33" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="22" t="n">
+        <v>45421</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J33" s="21"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
@@ -2014,14 +2033,24 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="12" t="n">
+        <v>29</v>
+      </c>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="19"/>
+      <c r="F34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="22" t="n">
+        <v>45421</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J34" s="21"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t xml:space="preserve">インターフェイスの部分が理解できていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課題内容が全然理解できていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分からないところを一つ一つ処理していく</t>
   </si>
 </sst>
 </file>
@@ -763,7 +769,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I34" activeCellId="0" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2071,14 +2077,24 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="12" t="n">
+        <v>30</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="19"/>
+      <c r="F35" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="22" t="n">
+        <v>45422</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J35" s="21"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t xml:space="preserve">分からないところを一つ一つ処理していく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認試験の点数があまり良くなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分が満足するまで問題を解きなおす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演習の提出規定をあまり確認できていなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">送られてきたメッセージをすべて確認する</t>
   </si>
 </sst>
 </file>
@@ -769,7 +781,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2115,14 +2127,24 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="12" t="n">
+        <v>31</v>
+      </c>
       <c r="C36" s="19"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="19"/>
+      <c r="F36" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="22" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J36" s="21"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
@@ -2143,14 +2165,24 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="12"/>
+      <c r="B37" s="12" t="n">
+        <v>32</v>
+      </c>
       <c r="C37" s="19"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="19"/>
+      <c r="F37" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="22" t="n">
+        <v>45425</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J37" s="21"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t xml:space="preserve">送られてきたメッセージをすべて確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">グループ演習のときにあまり話さなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理解している内容でも確認のために会話をとるようにする</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2203,14 +2209,24 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="12" t="n">
+        <v>33</v>
+      </c>
       <c r="C38" s="19"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="19"/>
+      <c r="F38" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="22" t="n">
+        <v>45426</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J38" s="21"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t xml:space="preserve">理解している内容でも確認のために会話をとるようにする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その単元をもう一度学びなおす</t>
   </si>
 </sst>
 </file>
@@ -784,10 +787,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2247,14 +2250,24 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="12" t="n">
+        <v>34</v>
+      </c>
       <c r="C39" s="19"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="19"/>
+      <c r="F39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="22" t="n">
+        <v>45427</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J39" s="21"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">その単元をもう一度学びなおす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サブクエリとシーケンスを理解することができなかった</t>
   </si>
 </sst>
 </file>
@@ -788,9 +791,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2288,14 +2291,24 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="12" t="n">
+        <v>35</v>
+      </c>
       <c r="C40" s="19"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="19"/>
+      <c r="F40" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" s="22" t="n">
+        <v>45428</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J40" s="21"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t xml:space="preserve">サブクエリとシーケンスを理解することができなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDBCの範囲がいまいち理解することができなかった</t>
   </si>
 </sst>
 </file>
@@ -793,7 +796,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="bottomLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2329,14 +2332,24 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="12" t="n">
+        <v>36</v>
+      </c>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="19"/>
+      <c r="F41" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="22" t="n">
+        <v>45429</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J41" s="21"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
@@ -2357,17 +2370,17 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -2385,17 +2398,17 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2413,17 +2426,17 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -2441,17 +2454,17 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2469,17 +2482,17 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2497,17 +2510,17 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -2525,17 +2538,17 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -2553,17 +2566,17 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -2581,17 +2594,17 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -2609,17 +2622,17 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2637,17 +2650,17 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -2665,17 +2678,17 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -29209,7 +29222,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C41 K26:K41" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26:K53" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -289,17 +289,24 @@
   <si>
     <t xml:space="preserve">JDBCの範囲がいまいち理解することができなかった</t>
   </si>
+  <si>
+    <t xml:space="preserve">総合試験の点数があまり良くなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弱点だと感じた分野を徹底的に学び把握する</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="000"/>
     <numFmt numFmtId="166" formatCode="[$-411]yyyy/m/d"/>
+    <numFmt numFmtId="167" formatCode="m\月d\日"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,6 +361,13 @@
       <name val="&quot;MS PGothic&quot;"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -437,7 +451,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,6 +549,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -793,10 +811,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1743,8 +1761,12 @@
         <v>22</v>
       </c>
       <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="19"/>
+      <c r="K25" s="22" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1781,8 +1803,12 @@
         <v>22</v>
       </c>
       <c r="J26" s="21"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="25" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1819,8 +1845,12 @@
         <v>22</v>
       </c>
       <c r="J27" s="21"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="K27" s="22" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -1895,8 +1925,12 @@
         <v>22</v>
       </c>
       <c r="J29" s="21"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="K29" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -2370,14 +2404,24 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="12" t="n">
+        <v>37</v>
+      </c>
       <c r="C42" s="19"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="19"/>
+      <c r="F42" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="22" t="n">
+        <v>45430</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J42" s="21"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
@@ -2706,7 +2750,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="25"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -2734,7 +2778,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="B55" s="25"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="3"/>
@@ -2762,7 +2806,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="B56" s="25"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -2790,7 +2834,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="B57" s="25"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="3"/>
@@ -2818,7 +2862,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="25"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="3"/>
@@ -2846,7 +2890,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="25"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="3"/>
@@ -2874,7 +2918,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="25"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
@@ -2902,7 +2946,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="25"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="3"/>
@@ -2930,7 +2974,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="25"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="3"/>
@@ -2958,7 +3002,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="25"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="3"/>
@@ -2986,7 +3030,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="25"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="3"/>
@@ -3014,7 +3058,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="25"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="3"/>
@@ -3042,7 +3086,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="25"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="3"/>
@@ -3070,7 +3114,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="25"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="3"/>
@@ -3098,7 +3142,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="25"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="3"/>
@@ -3126,7 +3170,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="25"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="3"/>
@@ -3154,7 +3198,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="3"/>
@@ -3182,7 +3226,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="25"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="3"/>
@@ -3210,7 +3254,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="25"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="3"/>
@@ -3238,7 +3282,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="25"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="3"/>
@@ -3266,7 +3310,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="25"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="3"/>
@@ -3294,7 +3338,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="25"/>
+      <c r="B75" s="26"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="3"/>
@@ -29222,7 +29266,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26:K53" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26 K28:K53" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t xml:space="preserve">弱点だと感じた分野を徹底的に学び把握する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSPの構造の理解があいまいになっている</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演習課題を行い、学びます</t>
   </si>
 </sst>
 </file>
@@ -812,9 +818,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2442,14 +2448,24 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="12" t="n">
+        <v>38</v>
+      </c>
       <c r="C43" s="19"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="19"/>
+      <c r="F43" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="22" t="n">
+        <v>45433</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J43" s="21"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t xml:space="preserve">演習課題を行い、学びます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コードの簡単なミスが多かった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コードの順番や表記を一つずつ確認しながら作成する</t>
   </si>
 </sst>
 </file>
@@ -818,9 +824,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2486,14 +2492,24 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="12" t="n">
+        <v>39</v>
+      </c>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="19"/>
+      <c r="F44" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="22" t="n">
+        <v>45434</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J44" s="21"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -307,6 +307,12 @@
   <si>
     <t xml:space="preserve">コードの順番や表記を一つずつ確認しながら作成する</t>
   </si>
+  <si>
+    <t xml:space="preserve">JDBCでのサンプルコードの動きが理解できていない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教科書とホワイトボードを照らし合わせて確認する</t>
+  </si>
 </sst>
 </file>
 
@@ -536,12 +542,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -549,10 +559,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,10 +829,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1051,8 +1057,12 @@
         <v>22</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1070,27 +1080,31 @@
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="18" t="n">
+      <c r="B7" s="20" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="22" t="n">
+      <c r="H7" s="18" t="n">
         <v>45398</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="19"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1112,9 +1126,9 @@
         <v>3</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="23" t="s">
@@ -1126,9 +1140,13 @@
       <c r="I8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1146,27 +1164,31 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="18" t="n">
+      <c r="B9" s="20" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="22" t="n">
+      <c r="H9" s="18" t="n">
         <v>45399</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="19"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1188,23 +1210,27 @@
         <v>5</v>
       </c>
       <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="22" t="n">
+      <c r="H10" s="18" t="n">
         <v>45399</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="18" t="n">
+        <v>45435</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1222,26 +1248,26 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="18" t="n">
+      <c r="B11" s="20" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="22" t="n">
+      <c r="H11" s="18" t="n">
         <v>45399</v>
       </c>
       <c r="I11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="19"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1264,23 +1290,27 @@
         <v>7</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="22" t="n">
+      <c r="H12" s="18" t="n">
         <v>45400</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1298,27 +1328,31 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="20" t="n">
         <v>8</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="22" t="n">
+      <c r="H13" s="18" t="n">
         <v>45400</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="19"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="18" t="n">
+        <v>45435</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1340,23 +1374,27 @@
         <v>9</v>
       </c>
       <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="22" t="n">
+      <c r="H14" s="18" t="n">
         <v>45400</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="19"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1374,27 +1412,31 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="18" t="n">
+      <c r="B15" s="20" t="n">
         <v>10</v>
       </c>
       <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="22" t="n">
+      <c r="H15" s="18" t="n">
         <v>45401</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="19"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1416,23 +1458,27 @@
         <v>11</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="18" t="n">
         <v>45401</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="19"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1450,27 +1496,31 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="18" t="n">
+      <c r="B17" s="20" t="n">
         <v>12</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21" t="s">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="22" t="n">
+      <c r="H17" s="18" t="n">
         <v>45401</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="19"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1492,23 +1542,27 @@
         <v>13</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="22" t="n">
+      <c r="H18" s="18" t="n">
         <v>45404</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="19"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -1526,27 +1580,31 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="18" t="n">
+      <c r="B19" s="20" t="n">
         <v>14</v>
       </c>
       <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="22" t="n">
+      <c r="H19" s="18" t="n">
         <v>45404</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="19"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1568,23 +1626,27 @@
         <v>15</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="22" t="n">
+      <c r="H20" s="18" t="n">
         <v>45405</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="19"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1602,27 +1664,31 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="18" t="n">
+      <c r="B21" s="20" t="n">
         <v>16</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="22" t="n">
+      <c r="H21" s="18" t="n">
         <v>45405</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="19"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1644,23 +1710,27 @@
         <v>17</v>
       </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="22" t="n">
+      <c r="H22" s="18" t="n">
         <v>45405</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="19"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="18" t="n">
+        <v>45435</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1678,26 +1748,26 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="20" t="n">
         <v>18</v>
       </c>
       <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="22" t="n">
+      <c r="H23" s="18" t="n">
         <v>45406</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="19"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -1720,22 +1790,22 @@
         <v>19</v>
       </c>
       <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="22" t="n">
+      <c r="H24" s="18" t="n">
         <v>45406</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="19"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -1754,26 +1824,26 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="18" t="n">
+      <c r="B25" s="20" t="n">
         <v>20</v>
       </c>
       <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="22" t="n">
+      <c r="H25" s="18" t="n">
         <v>45407</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22" t="n">
+      <c r="J25" s="22"/>
+      <c r="K25" s="18" t="n">
         <v>45430</v>
       </c>
       <c r="L25" s="19" t="s">
@@ -1800,21 +1870,21 @@
         <v>21</v>
       </c>
       <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="22" t="n">
+      <c r="H26" s="18" t="n">
         <v>45407</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="25" t="n">
         <v>45430</v>
       </c>
@@ -1842,22 +1912,22 @@
         <v>22</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="22" t="n">
+      <c r="H27" s="18" t="n">
         <v>45408</v>
       </c>
       <c r="I27" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22" t="n">
+      <c r="J27" s="22"/>
+      <c r="K27" s="18" t="n">
         <v>45430</v>
       </c>
       <c r="L27" s="19" t="s">
@@ -1884,23 +1954,27 @@
         <v>23</v>
       </c>
       <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="22" t="n">
+      <c r="H28" s="18" t="n">
         <v>45408</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1922,23 +1996,23 @@
         <v>24</v>
       </c>
       <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="22" t="n">
+      <c r="H29" s="18" t="n">
         <v>45419</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="19" t="s">
-        <v>12</v>
+      <c r="J29" s="22"/>
+      <c r="K29" s="18" t="n">
+        <v>45430</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>22</v>
@@ -1964,23 +2038,27 @@
         <v>25</v>
       </c>
       <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H30" s="22" t="n">
+      <c r="H30" s="18" t="n">
         <v>45419</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="18" t="n">
+        <v>45430</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -2002,21 +2080,21 @@
         <v>26</v>
       </c>
       <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="22" t="n">
+      <c r="H31" s="18" t="n">
         <v>45420</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="21"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
       <c r="M31" s="2"/>
@@ -2040,21 +2118,21 @@
         <v>27</v>
       </c>
       <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="22" t="n">
+      <c r="H32" s="18" t="n">
         <v>45420</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="21"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
       <c r="M32" s="2"/>
@@ -2078,21 +2156,21 @@
         <v>28</v>
       </c>
       <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="22" t="n">
+      <c r="H33" s="18" t="n">
         <v>45421</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
       <c r="M33" s="2"/>
@@ -2116,21 +2194,21 @@
         <v>29</v>
       </c>
       <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="22" t="n">
+      <c r="H34" s="18" t="n">
         <v>45421</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="21"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="2"/>
@@ -2154,21 +2232,21 @@
         <v>30</v>
       </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="22" t="n">
+      <c r="H35" s="18" t="n">
         <v>45422</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="21"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="2"/>
@@ -2192,21 +2270,21 @@
         <v>31</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H36" s="22" t="n">
+      <c r="H36" s="18" t="n">
         <v>45425</v>
       </c>
       <c r="I36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
       <c r="M36" s="2"/>
@@ -2230,21 +2308,21 @@
         <v>32</v>
       </c>
       <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="22" t="n">
+      <c r="H37" s="18" t="n">
         <v>45425</v>
       </c>
       <c r="I37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
       <c r="M37" s="2"/>
@@ -2268,21 +2346,21 @@
         <v>33</v>
       </c>
       <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="22" t="n">
+      <c r="H38" s="18" t="n">
         <v>45426</v>
       </c>
       <c r="I38" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
       <c r="M38" s="2"/>
@@ -2306,21 +2384,21 @@
         <v>34</v>
       </c>
       <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="22" t="n">
+      <c r="H39" s="18" t="n">
         <v>45427</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="21"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="2"/>
@@ -2344,21 +2422,21 @@
         <v>35</v>
       </c>
       <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H40" s="22" t="n">
+      <c r="H40" s="18" t="n">
         <v>45428</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="21"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="2"/>
@@ -2382,21 +2460,21 @@
         <v>36</v>
       </c>
       <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H41" s="22" t="n">
+      <c r="H41" s="18" t="n">
         <v>45429</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="21"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="2"/>
@@ -2420,21 +2498,21 @@
         <v>37</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="22" t="n">
+      <c r="H42" s="18" t="n">
         <v>45430</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="21"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="2"/>
@@ -2458,21 +2536,21 @@
         <v>38</v>
       </c>
       <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="22" t="n">
+      <c r="H43" s="18" t="n">
         <v>45433</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="21"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
       <c r="M43" s="2"/>
@@ -2496,21 +2574,21 @@
         <v>39</v>
       </c>
       <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H44" s="22" t="n">
+      <c r="H44" s="18" t="n">
         <v>45434</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="21"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="2"/>
@@ -2530,15 +2608,25 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="18" t="n">
+        <v>45435</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="22"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="2"/>
@@ -2560,13 +2648,13 @@
       <c r="A46" s="2"/>
       <c r="B46" s="12"/>
       <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="21"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="2"/>
@@ -2588,13 +2676,13 @@
       <c r="A47" s="2"/>
       <c r="B47" s="12"/>
       <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="21"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>
       <c r="M47" s="2"/>
@@ -2616,13 +2704,13 @@
       <c r="A48" s="2"/>
       <c r="B48" s="12"/>
       <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="21"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>
       <c r="M48" s="2"/>
@@ -2644,13 +2732,13 @@
       <c r="A49" s="2"/>
       <c r="B49" s="12"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="21"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
       <c r="M49" s="2"/>
@@ -2672,13 +2760,13 @@
       <c r="A50" s="2"/>
       <c r="B50" s="12"/>
       <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="22"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="21"/>
+      <c r="J50" s="22"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>
       <c r="M50" s="2"/>
@@ -2700,13 +2788,13 @@
       <c r="A51" s="2"/>
       <c r="B51" s="12"/>
       <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="22"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="21"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="2"/>
@@ -2728,13 +2816,13 @@
       <c r="A52" s="2"/>
       <c r="B52" s="12"/>
       <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="22"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="21"/>
+      <c r="J52" s="22"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="2"/>
@@ -2756,13 +2844,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="12"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="22"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="21"/>
+      <c r="J53" s="22"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="2"/>
@@ -29298,7 +29386,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26 K28:K53" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26 K31:K53" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t xml:space="preserve">教科書とホワイトボードを照らし合わせて確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データベースへの登録、更新、削除の理解があいまい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サンプルコードを行って理解したいと思う</t>
   </si>
 </sst>
 </file>
@@ -829,10 +835,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2475,8 +2481,12 @@
         <v>22</v>
       </c>
       <c r="J41" s="22"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="K41" s="18" t="n">
+        <v>45436</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2551,8 +2561,12 @@
         <v>22</v>
       </c>
       <c r="J43" s="22"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
+      <c r="K43" s="18" t="n">
+        <v>45436</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -2621,14 +2635,18 @@
         <v>96</v>
       </c>
       <c r="H45" s="18" t="n">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="22"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
+      <c r="K45" s="18" t="n">
+        <v>45436</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -2646,14 +2664,24 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="12" t="n">
+        <v>41</v>
+      </c>
       <c r="C46" s="19"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="19"/>
+      <c r="F46" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="18" t="n">
+        <v>45435</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J46" s="22"/>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
@@ -29386,7 +29414,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26 K31:K53" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26 K31:K40 K42 K44 K46:K53" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t xml:space="preserve">サンプルコードを行って理解したいと思う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JDBCの範囲がまだ理解できていなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">練習問題を解き、動きを確認する</t>
   </si>
 </sst>
 </file>
@@ -835,10 +841,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2702,14 +2708,24 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="12" t="n">
+        <v>42</v>
+      </c>
       <c r="C47" s="19"/>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
+      <c r="F47" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="18" t="n">
+        <v>45439</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J47" s="22"/>
       <c r="K47" s="19"/>
       <c r="L47" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t xml:space="preserve">練習問題を解き、動きを確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">演習で一つ一つ理解しながら進められているが、どうしても時間が掛かってしまう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わからなくなったら順序を講師の方に聞く</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G47" activeCellId="0" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2746,14 +2752,24 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
-      <c r="B48" s="12"/>
+      <c r="B48" s="12" t="n">
+        <v>43</v>
+      </c>
       <c r="C48" s="19"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
+      <c r="F48" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" s="18" t="n">
+        <v>45440</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J48" s="22"/>
       <c r="K48" s="19"/>
       <c r="L48" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t xml:space="preserve">わからなくなったら順序を講師の方に聞く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分が理解できていないと感じるものを把握しておく</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わからなかったところは箇条書きでメモする</t>
   </si>
 </sst>
 </file>
@@ -850,7 +856,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
+      <selection pane="bottomLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2790,14 +2796,24 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
-      <c r="B49" s="12"/>
+      <c r="B49" s="12" t="n">
+        <v>44</v>
+      </c>
       <c r="C49" s="19"/>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
+      <c r="F49" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="18" t="n">
+        <v>45441</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J49" s="22"/>
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t xml:space="preserve">わからなかったところは箇条書きでメモする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">課題完成までの時間配分がうまくいかなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">予定の想定時間を守れるように決める</t>
   </si>
 </sst>
 </file>
@@ -853,10 +859,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2834,14 +2840,24 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="12"/>
+      <c r="B50" s="12" t="n">
+        <v>45</v>
+      </c>
       <c r="C50" s="19"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="19"/>
+      <c r="F50" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="18" t="n">
+        <v>45442</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J50" s="22"/>
       <c r="K50" s="19"/>
       <c r="L50" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t xml:space="preserve">予定の想定時間を守れるように決める</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成果報告会で内容をまとめられなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自分の理解できた範囲とできなかった範囲をリスト化する</t>
   </si>
 </sst>
 </file>
@@ -859,10 +865,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2878,14 +2884,24 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="12"/>
+      <c r="B51" s="12" t="n">
+        <v>46</v>
+      </c>
       <c r="C51" s="19"/>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
+      <c r="F51" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="18" t="n">
+        <v>45443</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J51" s="22"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t xml:space="preserve">自分の理解できた範囲とできなかった範囲をリスト化する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アルファベットのケアレスミスがあった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">書き終えた文をもう一度見直す</t>
   </si>
 </sst>
 </file>
@@ -865,10 +871,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G51" activeCellId="0" sqref="G51"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M49" activeCellId="0" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2131,8 +2137,12 @@
         <v>22</v>
       </c>
       <c r="J31" s="22"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="K31" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2207,8 +2217,12 @@
         <v>22</v>
       </c>
       <c r="J33" s="22"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="K33" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2283,8 +2297,12 @@
         <v>22</v>
       </c>
       <c r="J35" s="22"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="K35" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2435,8 +2453,12 @@
         <v>22</v>
       </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="K39" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2713,8 +2735,12 @@
         <v>22</v>
       </c>
       <c r="J46" s="22"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="K46" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -2751,8 +2777,12 @@
         <v>22</v>
       </c>
       <c r="J47" s="22"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="K47" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -2922,14 +2952,24 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="12"/>
+      <c r="B52" s="12" t="n">
+        <v>47</v>
+      </c>
       <c r="C52" s="19"/>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="19"/>
+      <c r="F52" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="18" t="n">
+        <v>45444</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
@@ -2978,17 +3018,17 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -3006,17 +3046,17 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -3034,17 +3074,17 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -3062,17 +3102,17 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -3090,17 +3130,17 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -3118,17 +3158,17 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -3146,17 +3186,17 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -3174,17 +3214,17 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3202,17 +3242,17 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -3230,17 +3270,17 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -3258,17 +3298,17 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -3286,17 +3326,17 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -3314,17 +3354,17 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -3342,17 +3382,17 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -3370,17 +3410,17 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -3398,17 +3438,17 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -3426,17 +3466,17 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -29494,7 +29534,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C53 K26 K31:K40 K42 K44 K46:K53" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt=" - " showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:C70 K26 K32 K34 K36:K38 K40 K42 K44 K48:K70" type="list">
       <formula1>"未対応,対応中,保留,完了"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -354,6 +354,12 @@
   </si>
   <si>
     <t xml:space="preserve">書き終えた文をもう一度見直す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クラウドの送り先が理解できていなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">教科書で今日一度内容を確認する</t>
   </si>
 </sst>
 </file>
@@ -872,9 +878,9 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M49" activeCellId="0" sqref="M49"/>
+      <selection pane="bottomLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2990,14 +2996,24 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="12"/>
+      <c r="B53" s="12" t="n">
+        <v>48</v>
+      </c>
       <c r="C53" s="19"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
+      <c r="F53" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" s="18" t="n">
+        <v>45447</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J53" s="22"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>

--- a/13_YudaiKita_課題管理表.xlsx
+++ b/13_YudaiKita_課題管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
   <si>
     <t xml:space="preserve">課題管理表</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t xml:space="preserve">教科書で今日一度内容を確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">作業工程表の中身の書き方が分からなかった</t>
+  </si>
+  <si>
+    <t xml:space="preserve">講師に聞く</t>
   </si>
 </sst>
 </file>
@@ -877,10 +883,10 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="I54" activeCellId="0" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3034,14 +3040,24 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="12"/>
+      <c r="B54" s="12" t="n">
+        <v>49</v>
+      </c>
       <c r="C54" s="19"/>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="19"/>
+      <c r="F54" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="18" t="n">
+        <v>45449</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J54" s="22"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
